--- a/Excel-XLSX/UN-SUR.xlsx
+++ b/Excel-XLSX/UN-SUR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,193 @@
     <t>1</t>
   </si>
   <si>
-    <t>i17mTC</t>
+    <t>L7d5cg</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>1187</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1777</t>
+  </si>
+  <si>
+    <t>2084</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2313</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Dominican Rep.</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>1992</t>
@@ -105,25 +291,10 @@
     <t>HTI</t>
   </si>
   <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>SUR</t>
-  </si>
-  <si>
     <t>52</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>26</t>
   </si>
   <si>
     <t>1993</t>
@@ -132,7 +303,7 @@
     <t>50</t>
   </si>
   <si>
-    <t>3</t>
+    <t>27</t>
   </si>
   <si>
     <t>1994</t>
@@ -141,34 +312,28 @@
     <t>39</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>28</t>
   </si>
   <si>
     <t>1997</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>CUB</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
   <si>
     <t>106</t>
@@ -180,61 +345,28 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Dominican Rep.</t>
-  </si>
-  <si>
-    <t>DOM</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>JAM</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NIG</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>207</t>
@@ -246,127 +378,31 @@
     <t>VEN</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>COL</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>1187</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>NIG</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>41</t>
   </si>
   <si>
     <t>215</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
+    <t>42</t>
   </si>
   <si>
     <t>267</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1777</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>GUY</t>
-  </si>
-  <si>
-    <t>28</t>
+    <t>43</t>
   </si>
   <si>
     <t>331</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>413</t>
+    <t>430</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>455</t>
   </si>
 </sst>
 </file>
@@ -751,7 +787,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -853,46 +889,46 @@
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -906,60 +942,60 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -974,60 +1010,60 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="P4" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1042,60 +1078,60 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="P5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1110,61 +1146,61 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -1178,61 +1214,61 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -1246,60 +1282,60 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1314,60 +1350,60 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1382,60 +1418,60 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1450,60 +1486,60 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1518,60 +1554,60 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="Q12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1586,60 +1622,60 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="O13" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1654,61 +1690,61 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="P14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -1722,61 +1758,61 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -1790,60 +1826,60 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1858,60 +1894,60 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1926,60 +1962,60 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1994,60 +2030,60 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V19" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2062,60 +2098,60 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2130,61 +2166,61 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -2198,61 +2234,61 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -2266,60 +2302,60 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2334,61 +2370,61 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -2402,61 +2438,61 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -2470,60 +2506,60 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2538,60 +2574,60 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2606,60 +2642,60 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2674,60 +2710,60 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2742,61 +2778,61 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -2810,61 +2846,61 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -2878,60 +2914,60 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V32" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2946,60 +2982,60 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3014,60 +3050,60 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3082,60 +3118,60 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="H35" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3150,61 +3186,741 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O36" s="2" t="s">
+      <c r="H38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="P36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U36" s="1" t="s">
+      <c r="E41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>33</v>
+      <c r="F42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-SUR.xlsx
+++ b/Excel-XLSX/UN-SUR.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>L7d5cg</t>
+    <t>8HBlmi</t>
   </si>
   <si>
     <t>2023</t>
@@ -114,118 +114,118 @@
     <t>0</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>1187</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1777</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>COL</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>CUB</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>1187</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1777</t>
-  </si>
-  <si>
     <t>2084</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>2313</t>
+    <t>2136</t>
   </si>
   <si>
     <t>15</t>
@@ -369,6 +369,9 @@
     <t>40</t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>207</t>
   </si>
   <si>
@@ -378,31 +381,28 @@
     <t>VEN</t>
   </si>
   <si>
-    <t>41</t>
+    <t>42</t>
   </si>
   <si>
     <t>215</t>
   </si>
   <si>
-    <t>42</t>
+    <t>43</t>
   </si>
   <si>
     <t>267</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>331</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>430</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>455</t>
+    <t>441</t>
   </si>
 </sst>
 </file>
@@ -787,7 +787,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -975,7 +975,7 @@
         <v>31</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>31</v>
@@ -995,8 +995,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -1010,10 +1010,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>35</v>
@@ -1043,7 +1043,7 @@
         <v>31</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>31</v>
@@ -1063,8 +1063,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -1078,10 +1078,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>35</v>
@@ -1111,7 +1111,7 @@
         <v>31</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>31</v>
@@ -1131,8 +1131,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1146,10 +1146,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>35</v>
@@ -1179,7 +1179,7 @@
         <v>31</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>31</v>
@@ -1214,7 +1214,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -1247,7 +1247,7 @@
         <v>31</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>31</v>
@@ -1282,41 +1282,41 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="P8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1335,8 +1335,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -1350,41 +1350,41 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="P9" s="2" t="s">
         <v>31</v>
       </c>
@@ -1403,8 +1403,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1418,41 +1418,41 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="P10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1471,8 +1471,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -1486,22 +1486,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1516,11 +1516,11 @@
         <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="P11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1539,8 +1539,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -1554,43 +1554,43 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="P12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>31</v>
@@ -1607,8 +1607,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -1622,41 +1622,41 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="P13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1675,8 +1675,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -1690,22 +1690,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -1720,7 +1720,7 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>67</v>
@@ -1764,16 +1764,16 @@
         <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -1788,7 +1788,7 @@
         <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>69</v>
@@ -1829,7 +1829,7 @@
         <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>71</v>
@@ -1859,7 +1859,7 @@
         <v>31</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>31</v>
@@ -1879,8 +1879,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>74</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>71</v>
@@ -1947,8 +1947,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -1962,7 +1962,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>34</v>
@@ -2015,8 +2015,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -2033,7 +2033,7 @@
         <v>75</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>71</v>
@@ -2063,7 +2063,7 @@
         <v>31</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>31</v>
@@ -2083,8 +2083,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>76</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>71</v>
@@ -2131,7 +2131,7 @@
         <v>31</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>31</v>
@@ -2151,8 +2151,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -2169,7 +2169,7 @@
         <v>77</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>71</v>
@@ -2199,7 +2199,7 @@
         <v>31</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>31</v>
@@ -2267,7 +2267,7 @@
         <v>31</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>31</v>
@@ -2305,7 +2305,7 @@
         <v>79</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>80</v>
@@ -2335,7 +2335,7 @@
         <v>31</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>31</v>
@@ -2355,8 +2355,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -2373,7 +2373,7 @@
         <v>83</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>80</v>
@@ -2403,7 +2403,7 @@
         <v>31</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>31</v>
@@ -2471,7 +2471,7 @@
         <v>31</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>31</v>
@@ -2559,8 +2559,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -2627,8 +2627,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -2678,7 +2678,7 @@
         <v>31</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>31</v>
@@ -2695,8 +2695,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -2740,7 +2740,7 @@
         <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>31</v>
@@ -2763,8 +2763,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -2778,10 +2778,10 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>87</v>
@@ -2811,7 +2811,7 @@
         <v>31</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>31</v>
@@ -2846,7 +2846,7 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
@@ -2879,7 +2879,7 @@
         <v>31</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>31</v>
@@ -2917,7 +2917,7 @@
         <v>100</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>101</v>
@@ -2944,7 +2944,7 @@
         <v>30</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>31</v>
@@ -2967,8 +2967,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
+      <c r="V32" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -2985,7 +2985,7 @@
         <v>104</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>101</v>
@@ -3012,7 +3012,7 @@
         <v>30</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>31</v>
@@ -3035,8 +3035,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -3053,7 +3053,7 @@
         <v>105</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>106</v>
@@ -3083,7 +3083,7 @@
         <v>31</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>31</v>
@@ -3103,8 +3103,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -3151,7 +3151,7 @@
         <v>31</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>31</v>
@@ -3171,8 +3171,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -3189,7 +3189,7 @@
         <v>114</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>110</v>
@@ -3219,7 +3219,7 @@
         <v>31</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>31</v>
@@ -3239,8 +3239,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -3254,10 +3254,10 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>110</v>
@@ -3287,7 +3287,7 @@
         <v>31</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>31</v>
@@ -3307,8 +3307,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -3325,7 +3325,7 @@
         <v>115</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>110</v>
@@ -3355,7 +3355,7 @@
         <v>31</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>31</v>
@@ -3390,7 +3390,7 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>24</v>
@@ -3423,7 +3423,7 @@
         <v>31</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>31</v>
@@ -3461,7 +3461,7 @@
         <v>97</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>28</v>
@@ -3506,7 +3506,7 @@
         <v>31</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>33</v>
@@ -3529,19 +3529,19 @@
         <v>116</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -3556,10 +3556,10 @@
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>31</v>
@@ -3574,13 +3574,13 @@
         <v>31</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -3594,22 +3594,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="I42" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -3624,10 +3624,10 @@
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>31</v>
@@ -3647,8 +3647,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43">
@@ -3662,41 +3662,41 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O43" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="P43" s="2" t="s">
         <v>31</v>
       </c>
@@ -3715,8 +3715,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44">
@@ -3730,41 +3730,41 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O44" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="P44" s="2" t="s">
         <v>31</v>
       </c>
@@ -3783,8 +3783,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45">
@@ -3801,19 +3801,19 @@
         <v>35</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -3828,10 +3828,10 @@
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>31</v>
@@ -3866,60 +3866,128 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O46" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="P46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O46" s="2" t="s">
+      <c r="H47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O47" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="P46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V46" s="2" t="s">
+      <c r="P47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V47" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-SUR.xlsx
+++ b/Excel-XLSX/UN-SUR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,319 +90,361 @@
     <t>8HBlmi</t>
   </si>
   <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Dominican Rep.</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>1187</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NIG</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1777</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2084</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
     <t>2023</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
     <t>AFG</t>
   </si>
   <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>SUR</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>COL</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>CUB</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>1187</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1777</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2084</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>40</t>
   </si>
   <si>
     <t>2136</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Dominican Rep.</t>
-  </si>
-  <si>
-    <t>DOM</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>GUY</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>HAI</t>
-  </si>
-  <si>
-    <t>HTI</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>JAM</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>LBR</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>NIG</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
-    <t>VEN</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
-    <t>215</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>441</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>466</t>
   </si>
 </sst>
 </file>
@@ -787,7 +829,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -889,46 +931,46 @@
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -942,61 +984,61 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1016,55 +1058,55 @@
         <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1078,61 +1120,61 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="O5" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1146,61 +1188,61 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1214,61 +1256,61 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1282,10 +1324,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>46</v>
@@ -1300,43 +1342,43 @@
         <v>48</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1350,61 +1392,61 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1418,61 +1460,61 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1486,10 +1528,10 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>46</v>
@@ -1504,43 +1546,43 @@
         <v>48</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1554,61 +1596,61 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1622,61 +1664,61 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -1690,61 +1732,61 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1758,61 +1800,61 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -1826,61 +1868,61 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -1894,61 +1936,61 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -1962,61 +2004,61 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -2030,61 +2072,61 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -2098,61 +2140,61 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -2166,61 +2208,61 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2234,61 +2276,61 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2302,61 +2344,61 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2370,61 +2412,61 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -2438,61 +2480,61 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -2506,61 +2548,61 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="O26" s="2" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -2574,61 +2616,61 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -2642,61 +2684,61 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -2710,61 +2752,61 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -2778,61 +2820,61 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -2846,61 +2888,61 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -2914,61 +2956,61 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -2982,61 +3024,61 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -3050,10 +3092,10 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>106</v>
@@ -3068,43 +3110,43 @@
         <v>108</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -3118,61 +3160,61 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -3186,61 +3228,61 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -3254,61 +3296,61 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -3322,61 +3364,61 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -3393,58 +3435,58 @@
         <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -3458,61 +3500,61 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -3526,61 +3568,61 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -3594,61 +3636,61 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -3662,61 +3704,61 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -3730,61 +3772,61 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
@@ -3798,61 +3840,61 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -3866,61 +3908,61 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -3937,58 +3979,738 @@
         <v>46</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>128</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-SUR.xlsx
+++ b/Excel-XLSX/UN-SUR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>8HBlmi</t>
+    <t>L82Ktu</t>
   </si>
   <si>
     <t>1992</t>
@@ -417,7 +417,7 @@
     <t>49</t>
   </si>
   <si>
-    <t>2405</t>
+    <t>2705</t>
   </si>
   <si>
     <t>51</t>
@@ -426,25 +426,7 @@
     <t>54</t>
   </si>
   <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>466</t>
+    <t>482</t>
   </si>
 </sst>
 </file>
@@ -829,7 +811,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -4077,7 +4059,7 @@
         <v>33</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>33</v>
@@ -4145,7 +4127,7 @@
         <v>33</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>33</v>
@@ -4417,7 +4399,7 @@
         <v>33</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>33</v>
@@ -4485,7 +4467,7 @@
         <v>33</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>33</v>
@@ -4526,35 +4508,35 @@
         <v>130</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O55" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="P55" s="2" t="s">
         <v>33</v>
       </c>
@@ -4565,7 +4547,7 @@
         <v>33</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="T55" s="2" t="s">
         <v>33</v>
@@ -4574,142 +4556,6 @@
         <v>34</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V56" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V57" s="2" t="s">
         <v>33</v>
       </c>
     </row>
